--- a/rfuse/rfuse_busy_6_summary.xlsx
+++ b/rfuse/rfuse_busy_6_summary.xlsx
@@ -446,19 +446,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>2280</v>
+        <v>2285</v>
       </c>
       <c r="C3" s="3">
-        <v>4137</v>
+        <v>4154</v>
       </c>
       <c r="D3" s="3">
-        <v>8031</v>
+        <v>8733</v>
       </c>
       <c r="E3" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="F3" s="3">
-        <v>24400</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -493,19 +493,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>2604</v>
+        <v>2569</v>
       </c>
       <c r="C8" s="3">
-        <v>5636</v>
+        <v>5680</v>
       </c>
       <c r="D8" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="E8" s="3">
-        <v>28600</v>
+        <v>29300</v>
       </c>
       <c r="F8" s="3">
-        <v>65400</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -540,19 +540,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>1903</v>
+        <v>1932</v>
       </c>
       <c r="C13" s="3">
-        <v>3716</v>
+        <v>3357</v>
       </c>
       <c r="D13" s="3">
-        <v>5490</v>
+        <v>6122</v>
       </c>
       <c r="E13" s="3">
-        <v>7025</v>
+        <v>9683</v>
       </c>
       <c r="F13" s="3">
-        <v>9153</v>
+        <v>9740</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -587,19 +587,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>5248</v>
+        <v>8600</v>
       </c>
       <c r="C18" s="3">
-        <v>12300</v>
+        <v>11400</v>
       </c>
       <c r="D18" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="E18" s="3">
-        <v>29800</v>
+        <v>35000</v>
       </c>
       <c r="F18" s="3">
-        <v>46300</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -634,19 +634,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>4338</v>
+        <v>4266</v>
       </c>
       <c r="C23" s="3">
-        <v>8258</v>
+        <v>6649</v>
       </c>
       <c r="D23" s="3">
-        <v>11900</v>
+        <v>12800</v>
       </c>
       <c r="E23" s="3">
-        <v>22300</v>
+        <v>21000</v>
       </c>
       <c r="F23" s="3">
-        <v>31300</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -681,19 +681,19 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>46900</v>
+        <v>90800</v>
       </c>
       <c r="C28" s="3">
-        <v>231000</v>
+        <v>207000</v>
       </c>
       <c r="D28" s="3">
-        <v>362000</v>
+        <v>496000</v>
       </c>
       <c r="E28" s="3">
-        <v>728000</v>
+        <v>669000</v>
       </c>
       <c r="F28" s="3">
-        <v>955000</v>
+        <v>967000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -728,19 +728,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>997</v>
+        <v>928</v>
       </c>
       <c r="C33" s="3">
-        <v>2273</v>
+        <v>1801</v>
       </c>
       <c r="D33" s="3">
-        <v>3462</v>
+        <v>3153</v>
       </c>
       <c r="E33" s="3">
-        <v>5851</v>
+        <v>5505</v>
       </c>
       <c r="F33" s="3">
-        <v>6886</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -775,19 +775,19 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>4597</v>
+        <v>4393</v>
       </c>
       <c r="C38" s="3">
-        <v>9391</v>
+        <v>9099</v>
       </c>
       <c r="D38" s="3">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="E38" s="3">
-        <v>32800</v>
+        <v>29800</v>
       </c>
       <c r="F38" s="3">
-        <v>49500</v>
+        <v>48500</v>
       </c>
     </row>
   </sheetData>
